--- a/tugas/laporan.xlsx
+++ b/tugas/laporan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karunia/Documents/lecturer - DBMS/2019:2020/IF3144-1920/tugas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BCC686-22E0-164A-BCF3-023CF9D487A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F409652C-A4B2-B041-93C9-55CCCBF85C91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" xr2:uid="{3C9D5799-7662-CB47-8B99-82C16436D226}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>advisor = 100, student = 100, section = 200,takes = 200</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>Hasil dan Pembahasan ( jelaskan dan kaitkan dengan teori DBMS dari informasi hasil yang didapatkan, dengan deskripsi dan grafik)</t>
+  </si>
+  <si>
+    <t>4. Lakukan pada setiap Query</t>
   </si>
 </sst>
 </file>
@@ -509,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7283ED88-C5BB-2349-93B1-5D98200E2DE2}">
-  <dimension ref="A2:C26"/>
+  <dimension ref="A2:C28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -632,18 +635,23 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>22</v>
       </c>
     </row>

--- a/tugas/laporan.xlsx
+++ b/tugas/laporan.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karunia/Documents/lecturer - DBMS/2019:2020/IF3144-1920/tugas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TUBESMBD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F409652C-A4B2-B041-93C9-55CCCBF85C91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" xr2:uid="{3C9D5799-7662-CB47-8B99-82C16436D226}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="5628" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tugas" sheetId="1" r:id="rId1"/>
-    <sheet name="Laporan" sheetId="2" r:id="rId2"/>
+    <sheet name="SELECT1 (5)" sheetId="7" r:id="rId2"/>
+    <sheet name="SELECT1 (4)" sheetId="6" r:id="rId3"/>
+    <sheet name="SELECT1 (3)" sheetId="5" r:id="rId4"/>
+    <sheet name="SELECT1 (2)" sheetId="4" r:id="rId5"/>
+    <sheet name="SELECT1" sheetId="3" r:id="rId6"/>
+    <sheet name="Laporan" sheetId="2" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="34">
   <si>
     <t>advisor = 100, student = 100, section = 200,takes = 200</t>
   </si>
@@ -139,7 +143,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -511,21 +515,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7283ED88-C5BB-2349-93B1-5D98200E2DE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="61.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="61.296875" customWidth="1"/>
     <col min="2" max="2" width="28.5" customWidth="1"/>
-    <col min="3" max="3" width="26.83203125" customWidth="1"/>
+    <col min="3" max="3" width="26.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -536,121 +540,121 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -661,71 +665,532 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EEE10EE-7B32-C94F-84A3-EE8D948576BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="61.5" customWidth="1"/>
+    <col min="2" max="2" width="26.19921875" customWidth="1"/>
+    <col min="3" max="3" width="26.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3">
+        <f>0.09*1000</f>
+        <v>90</v>
+      </c>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <f>0.02*1000</f>
+        <v>20</v>
+      </c>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3">
+        <f>0.05*1000</f>
+        <v>50</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="61.5" customWidth="1"/>
+    <col min="2" max="2" width="26.19921875" customWidth="1"/>
+    <col min="3" max="3" width="26.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <f>0.03*1000</f>
+        <v>30</v>
+      </c>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3">
+        <f>0.08*1000</f>
+        <v>80</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="61.5" customWidth="1"/>
+    <col min="2" max="2" width="26.19921875" customWidth="1"/>
+    <col min="3" max="3" width="26.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="61.5" customWidth="1"/>
+    <col min="2" max="2" width="26.19921875" customWidth="1"/>
+    <col min="3" max="3" width="26.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="61.5" customWidth="1"/>
+    <col min="2" max="2" width="26.19921875" customWidth="1"/>
+    <col min="3" max="3" width="26.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>27</v>
       </c>

--- a/tugas/laporan.xlsx
+++ b/tugas/laporan.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TUBESMBD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TUBESMBD\IF3144-1920\tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="5628" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8580" windowHeight="6480" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Tugas" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="37">
   <si>
     <t>advisor = 100, student = 100, section = 200,takes = 200</t>
   </si>
@@ -138,6 +138,15 @@
   </si>
   <si>
     <t>4. Lakukan pada setiap Query</t>
+  </si>
+  <si>
+    <t>SELECT name, dept_name FROM student WHERE tot_cred &gt; 30;</t>
+  </si>
+  <si>
+    <t>SELECT student.name,student.dept_name,takes.sec_id AS pengambilan,takes.semester,section.room_number,section.building,course.course_id,course.dept_name FROM takes JOIN student ON takes.ID = student.ID JOIN section ON takes.course_id = section.course_id JOIN course ON section.course_id = course.course_id;</t>
+  </si>
+  <si>
+    <t>ning</t>
   </si>
 </sst>
 </file>
@@ -518,7 +527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C28"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -668,9 +677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -681,7 +688,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -700,10 +707,12 @@
         <v>0</v>
       </c>
       <c r="B4" s="3">
-        <f>0.09*1000</f>
-        <v>90</v>
-      </c>
-      <c r="C4" s="3"/>
+        <f>0.02*1000</f>
+        <v>20</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -713,17 +722,20 @@
         <f>0.02*1000</f>
         <v>20</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3">
+        <v>20</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="3">
-        <f>0.05*1000</f>
-        <v>50</v>
-      </c>
-      <c r="C6" s="3"/>
+        <v>120</v>
+      </c>
+      <c r="C6" s="3">
+        <v>40</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
@@ -762,9 +774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -794,29 +804,34 @@
         <v>0</v>
       </c>
       <c r="B4" s="3">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3"/>
+        <f>0.06*1000</f>
+        <v>60</v>
+      </c>
+      <c r="C4" s="3">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="3">
-        <f>0.03*1000</f>
-        <v>30</v>
-      </c>
-      <c r="C5" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="C5" s="3">
+        <v>20</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="3">
-        <f>0.08*1000</f>
-        <v>80</v>
-      </c>
-      <c r="C6" s="3"/>
+        <v>120</v>
+      </c>
+      <c r="C6" s="3">
+        <v>50</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
@@ -855,9 +870,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -868,7 +881,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -889,7 +902,9 @@
       <c r="B4" s="3">
         <v>0</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -898,7 +913,9 @@
       <c r="B5" s="3">
         <v>0</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -907,7 +924,9 @@
       <c r="B6" s="3">
         <v>0</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
@@ -946,9 +965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -978,27 +995,34 @@
         <v>0</v>
       </c>
       <c r="B4" s="3">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3"/>
+        <f>0.07*1000</f>
+        <v>70</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="3">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="3">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
@@ -1037,8 +1061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1071,16 +1095,20 @@
       <c r="B4" s="3">
         <v>0</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="3">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -1089,7 +1117,9 @@
       <c r="B6" s="3">
         <v>0</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
@@ -1127,7 +1157,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
@@ -1195,6 +1225,11 @@
         <v>27</v>
       </c>
     </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tugas/laporan.xlsx
+++ b/tugas/laporan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karunia/Documents/lecturer - DBMS/2019:2020/IF3144-1920/tugas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\#RIGBY MULTIMEDIA\Documents\A Tubes MBD\IF3144-1920-master\tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F409652C-A4B2-B041-93C9-55CCCBF85C91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1EE7EEE-FF8F-405E-8CB5-8CF6FAFC97B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" xr2:uid="{3C9D5799-7662-CB47-8B99-82C16436D226}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3C9D5799-7662-CB47-8B99-82C16436D226}"/>
   </bookViews>
   <sheets>
     <sheet name="Tugas" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>advisor = 100, student = 100, section = 200,takes = 200</t>
   </si>
@@ -73,18 +73,6 @@
     <t>SELECT * FROM student WHERE tot_cred &gt; 30;</t>
   </si>
   <si>
-    <t>SELECT * FROM student</t>
-  </si>
-  <si>
-    <t>SELECT `name`, department FROM student WHERE tot_cred &gt; 30;</t>
-  </si>
-  <si>
-    <t>SELECT *  FROM takes JOIN student ON takes.ID = student.ID JOIN section ON takes.course_id = section.course_id</t>
-  </si>
-  <si>
-    <t>SELECT student.`name`,student.dept_name,takes.sec_id AS pengambilan,takes.semester,section.room_number,section.building,course.course_id,course.dept_name FROM takes JOIN student ON takes.ID = student.ID JOIN section ON takes.course_id = section.course_id JOIN course ON section.course_id = course.course_id</t>
-  </si>
-  <si>
     <t>1. Run dengan menggunakan terminal Query di atas dan catat waktunya</t>
   </si>
   <si>
@@ -134,6 +122,36 @@
   </si>
   <si>
     <t>4. Lakukan pada setiap Query</t>
+  </si>
+  <si>
+    <t>SELECT `name`, dept_name FROM student WHERE tot_cred &gt; 30;</t>
+  </si>
+  <si>
+    <t>SELECT * FROM student;</t>
+  </si>
+  <si>
+    <t>SELECT *  FROM takes JOIN student ON takes.ID = student.ID JOIN section ON takes.course_id = section.course_id;</t>
+  </si>
+  <si>
+    <t>SELECT student.`name`,student.dept_name,takes.sec_id AS pengambilan,takes.semester,section.room_number,section.building,course.course_id,course.dept_name FROM takes JOIN student ON takes.ID = student.ID JOIN section ON takes.course_id = section.course_id JOIN course ON section.course_id = course.course_id;</t>
+  </si>
+  <si>
+    <t>1; 2; 1; 88; 4</t>
+  </si>
+  <si>
+    <t>2; 2; 2; 18; 12</t>
+  </si>
+  <si>
+    <t>55; 2; 3; 39; 102</t>
+  </si>
+  <si>
+    <t>1; 1; 1; 8; 7 | 0; 1; 0; 27; 2</t>
+  </si>
+  <si>
+    <t>2; 2; 1; 16; 12 | 1; 1; 1; 5; 4</t>
+  </si>
+  <si>
+    <t>3; 3; 2; 41; 33 | 1; 1; 1; 21; 15</t>
   </si>
 </sst>
 </file>
@@ -192,12 +210,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,18 +533,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7283ED88-C5BB-2349-93B1-5D98200E2DE2}">
   <dimension ref="A2:C28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="61.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.5" customWidth="1"/>
-    <col min="3" max="3" width="26.83203125" customWidth="1"/>
+    <col min="3" max="3" width="26.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -536,123 +555,135 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -665,69 +696,69 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B9" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/tugas/laporan.xlsx
+++ b/tugas/laporan.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karunia/Documents/lecturer - DBMS/2019:2020/IF3144-1920/tugas/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F409652C-A4B2-B041-93C9-55CCCBF85C91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" xr2:uid="{3C9D5799-7662-CB47-8B99-82C16436D226}"/>
+    <workbookView xWindow="375" yWindow="465" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Tugas" sheetId="1" r:id="rId1"/>
     <sheet name="Laporan" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="40">
   <si>
     <t>advisor = 100, student = 100, section = 200,takes = 200</t>
   </si>
@@ -76,9 +70,6 @@
     <t>SELECT * FROM student</t>
   </si>
   <si>
-    <t>SELECT `name`, department FROM student WHERE tot_cred &gt; 30;</t>
-  </si>
-  <si>
     <t>SELECT *  FROM takes JOIN student ON takes.ID = student.ID JOIN section ON takes.course_id = section.course_id</t>
   </si>
   <si>
@@ -134,12 +125,33 @@
   </si>
   <si>
     <t>4. Lakukan pada setiap Query</t>
+  </si>
+  <si>
+    <t>0,0000</t>
+  </si>
+  <si>
+    <t>SELECT dept_name FROM student WHERE tot_cred &gt; 30;</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Q5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -165,7 +177,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -188,16 +200,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -258,7 +304,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -310,7 +356,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -504,230 +550,411 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7283ED88-C5BB-2349-93B1-5D98200E2DE2}">
-  <dimension ref="A2:C28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:K28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5" customWidth="1"/>
-    <col min="3" max="3" width="26.83203125" customWidth="1"/>
+    <col min="1" max="1" width="61.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="B5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="B6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="B7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>22</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="G2:K2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EEE10EE-7B32-C94F-84A3-EE8D948576BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B9" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/tugas/laporan.xlsx
+++ b/tugas/laporan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karunia/Documents/lecturer - DBMS/2019:2020/IF3144-1920/tugas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\IF3144-1920-master\tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F409652C-A4B2-B041-93C9-55CCCBF85C91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B52EFF-2095-4D4F-AC82-B0175E10DB40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" xr2:uid="{3C9D5799-7662-CB47-8B99-82C16436D226}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{3C9D5799-7662-CB47-8B99-82C16436D226}"/>
   </bookViews>
   <sheets>
     <sheet name="Tugas" sheetId="1" r:id="rId1"/>
@@ -76,9 +76,6 @@
     <t>SELECT * FROM student</t>
   </si>
   <si>
-    <t>SELECT `name`, department FROM student WHERE tot_cred &gt; 30;</t>
-  </si>
-  <si>
     <t>SELECT *  FROM takes JOIN student ON takes.ID = student.ID JOIN section ON takes.course_id = section.course_id</t>
   </si>
   <si>
@@ -134,6 +131,9 @@
   </si>
   <si>
     <t>4. Lakukan pada setiap Query</t>
+  </si>
+  <si>
+    <t>SELECT dept_name FROM student WHERE tot_cred &gt; 30;</t>
   </si>
 </sst>
 </file>
@@ -514,18 +514,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7283ED88-C5BB-2349-93B1-5D98200E2DE2}">
   <dimension ref="A2:C28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="61.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.5" customWidth="1"/>
-    <col min="3" max="3" width="26.83203125" customWidth="1"/>
+    <col min="3" max="3" width="26.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -536,123 +536,123 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -664,70 +664,70 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EEE10EE-7B32-C94F-84A3-EE8D948576BC}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B9" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/tugas/laporan.xlsx
+++ b/tugas/laporan.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karunia/Documents/lecturer - DBMS/2019:2020/IF3144-1920/tugas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\IF3144-1920\tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F409652C-A4B2-B041-93C9-55CCCBF85C91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" xr2:uid="{3C9D5799-7662-CB47-8B99-82C16436D226}"/>
+    <workbookView xWindow="384" yWindow="456" windowWidth="28044" windowHeight="16464" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tugas" sheetId="1" r:id="rId1"/>
-    <sheet name="Laporan" sheetId="2" r:id="rId2"/>
+    <sheet name="HASIL WAKTU QUERY" sheetId="3" r:id="rId2"/>
+    <sheet name="Laporan" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
   <si>
     <t>advisor = 100, student = 100, section = 200,takes = 200</t>
   </si>
@@ -73,12 +73,6 @@
     <t>SELECT * FROM student WHERE tot_cred &gt; 30;</t>
   </si>
   <si>
-    <t>SELECT * FROM student</t>
-  </si>
-  <si>
-    <t>SELECT `name`, department FROM student WHERE tot_cred &gt; 30;</t>
-  </si>
-  <si>
     <t>SELECT *  FROM takes JOIN student ON takes.ID = student.ID JOIN section ON takes.course_id = section.course_id</t>
   </si>
   <si>
@@ -134,12 +128,33 @@
   </si>
   <si>
     <t>4. Lakukan pada setiap Query</t>
+  </si>
+  <si>
+    <t>QUERY 1</t>
+  </si>
+  <si>
+    <t>QUERY 2</t>
+  </si>
+  <si>
+    <t>QUERY 3</t>
+  </si>
+  <si>
+    <t>QUERY 4</t>
+  </si>
+  <si>
+    <t>QUERY 5</t>
+  </si>
+  <si>
+    <t>SELECT dept_name FROM student WHERE tot_cred &gt; 30;</t>
+  </si>
+  <si>
+    <t>SELECT * FROM student;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -192,12 +207,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,21 +536,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7283ED88-C5BB-2349-93B1-5D98200E2DE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="61.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="61.296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.5" customWidth="1"/>
-    <col min="3" max="3" width="26.83203125" customWidth="1"/>
+    <col min="3" max="3" width="26.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -536,123 +561,123 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -661,73 +686,541 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EEE10EE-7B32-C94F-84A3-EE8D948576BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:X10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="61.69921875" customWidth="1"/>
+    <col min="3" max="3" width="9.19921875" customWidth="1"/>
+    <col min="14" max="14" width="6.296875" customWidth="1"/>
+    <col min="15" max="17" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="9.8984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="N2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+    </row>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B3" s="6"/>
+      <c r="C3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="6"/>
+      <c r="O3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>4.1829999999999998E-4</v>
+      </c>
+      <c r="D4" s="3">
+        <v>6.803E-4</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2.7050000000000002E-4</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1.4077E-3</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1.1169000000000001E-3</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1.662E-4</v>
+      </c>
+      <c r="I4" s="3">
+        <v>9.1600000000000004E-5</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1.4750000000000001E-4</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1.472E-4</v>
+      </c>
+      <c r="L4" s="3">
+        <v>1.2410000000000001E-4</v>
+      </c>
+      <c r="N4" s="8">
+        <v>1</v>
+      </c>
+      <c r="O4" s="3">
+        <v>1.662E-4</v>
+      </c>
+      <c r="P4" s="3">
+        <v>9.1600000000000004E-5</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>1.4750000000000001E-4</v>
+      </c>
+      <c r="R4" s="3">
+        <v>1.472E-4</v>
+      </c>
+      <c r="S4" s="3">
+        <v>1.2410000000000001E-4</v>
+      </c>
+      <c r="T4" s="3">
+        <v>1.662E-4</v>
+      </c>
+      <c r="U4" s="3">
+        <v>9.1600000000000004E-5</v>
+      </c>
+      <c r="V4" s="3">
+        <v>1.4750000000000001E-4</v>
+      </c>
+      <c r="W4" s="3">
+        <v>1.472E-4</v>
+      </c>
+      <c r="X4" s="3">
+        <v>1.2410000000000001E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4.3120000000000002E-4</v>
+      </c>
+      <c r="D5" s="3">
+        <v>5.4350000000000004E-4</v>
+      </c>
+      <c r="E5" s="3">
+        <v>4.2200000000000001E-4</v>
+      </c>
+      <c r="F5" s="3">
+        <v>3.0647999999999999E-3</v>
+      </c>
+      <c r="G5" s="3">
+        <v>3.1541999999999998E-3</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1.3880000000000001E-4</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1.138E-4</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1.209E-4</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1.5579999999999999E-4</v>
+      </c>
+      <c r="L5" s="3">
+        <v>1.561E-4</v>
+      </c>
+      <c r="N5" s="8">
+        <v>2</v>
+      </c>
+      <c r="O5" s="3">
+        <v>1.3880000000000001E-4</v>
+      </c>
+      <c r="P5" s="3">
+        <v>1.138E-4</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>1.209E-4</v>
+      </c>
+      <c r="R5" s="3">
+        <v>1.5579999999999999E-4</v>
+      </c>
+      <c r="S5" s="3">
+        <v>1.561E-4</v>
+      </c>
+      <c r="T5" s="3">
+        <v>1.3880000000000001E-4</v>
+      </c>
+      <c r="U5" s="3">
+        <v>1.138E-4</v>
+      </c>
+      <c r="V5" s="3">
+        <v>1.209E-4</v>
+      </c>
+      <c r="W5" s="3">
+        <v>1.5579999999999999E-4</v>
+      </c>
+      <c r="X5" s="3">
+        <v>1.561E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>6.5379999999999995E-4</v>
+      </c>
+      <c r="D6" s="3">
+        <v>5.306E-4</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1.2317000000000001E-3</v>
+      </c>
+      <c r="F6" s="3">
+        <v>9.8072000000000003E-3</v>
+      </c>
+      <c r="G6" s="3">
+        <v>5.9198999999999996E-3</v>
+      </c>
+      <c r="H6" s="3">
+        <v>8.8700000000000001E-5</v>
+      </c>
+      <c r="I6" s="3">
+        <v>8.7299999999999994E-5</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1.8440000000000001E-4</v>
+      </c>
+      <c r="K6" s="3">
+        <v>5.4600000000000004E-4</v>
+      </c>
+      <c r="L6" s="3">
+        <v>2.633E-4</v>
+      </c>
+      <c r="N6" s="8">
+        <v>3</v>
+      </c>
+      <c r="O6" s="7">
+        <v>8.8700000000000001E-5</v>
+      </c>
+      <c r="P6" s="7">
+        <v>8.7299999999999994E-5</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>1.8440000000000001E-4</v>
+      </c>
+      <c r="R6" s="3">
+        <v>5.4600000000000004E-4</v>
+      </c>
+      <c r="S6" s="3">
+        <v>2.633E-4</v>
+      </c>
+      <c r="T6" s="7">
+        <v>8.8700000000000001E-5</v>
+      </c>
+      <c r="U6" s="7">
+        <v>8.7299999999999994E-5</v>
+      </c>
+      <c r="V6" s="3">
+        <v>1.8440000000000001E-4</v>
+      </c>
+      <c r="W6" s="3">
+        <v>5.4600000000000004E-4</v>
+      </c>
+      <c r="X6" s="3">
+        <v>2.633E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>8.0380000000000002E-4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1.1861E-3</v>
+      </c>
+      <c r="E7" s="3">
+        <v>5.4319999999999998E-4</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2.4276507999999999</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2.6355509000000001</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1.1510000000000001E-4</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1.2070000000000001E-4</v>
+      </c>
+      <c r="J7" s="3">
+        <v>9.6100000000000005E-5</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="N7" s="8">
+        <v>4</v>
+      </c>
+      <c r="O7" s="3">
+        <v>1.1510000000000001E-4</v>
+      </c>
+      <c r="P7" s="3">
+        <v>1.2070000000000001E-4</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>9.6100000000000005E-5</v>
+      </c>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3">
+        <v>1.1510000000000001E-4</v>
+      </c>
+      <c r="U7" s="3">
+        <v>1.2070000000000001E-4</v>
+      </c>
+      <c r="V7" s="7">
+        <v>9.6100000000000005E-5</v>
+      </c>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:S2"/>
+    <mergeCell ref="T2:X2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B9" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B9" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/tugas/laporan.xlsx
+++ b/tugas/laporan.xlsx
@@ -1,24 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karunia/Documents/lecturer - DBMS/2019:2020/IF3144-1920/tugas/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F409652C-A4B2-B041-93C9-55CCCBF85C91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" xr2:uid="{3C9D5799-7662-CB47-8B99-82C16436D226}"/>
+    <workbookView xWindow="384" yWindow="456" windowWidth="23256" windowHeight="13176" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tugas" sheetId="1" r:id="rId1"/>
     <sheet name="Laporan" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -32,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="100">
   <si>
     <t>advisor = 100, student = 100, section = 200,takes = 200</t>
   </si>
@@ -55,12 +49,6 @@
     <t>advisor = 10000, student = 10000, section = 30000000,takes = 30000000</t>
   </si>
   <si>
-    <t>Waktu Sebelum Tunning (ms)</t>
-  </si>
-  <si>
-    <t>Waktu Sesudah Tuning (ms)</t>
-  </si>
-  <si>
     <t>Data</t>
   </si>
   <si>
@@ -73,18 +61,6 @@
     <t>SELECT * FROM student WHERE tot_cred &gt; 30;</t>
   </si>
   <si>
-    <t>SELECT * FROM student</t>
-  </si>
-  <si>
-    <t>SELECT `name`, department FROM student WHERE tot_cred &gt; 30;</t>
-  </si>
-  <si>
-    <t>SELECT *  FROM takes JOIN student ON takes.ID = student.ID JOIN section ON takes.course_id = section.course_id</t>
-  </si>
-  <si>
-    <t>SELECT student.`name`,student.dept_name,takes.sec_id AS pengambilan,takes.semester,section.room_number,section.building,course.course_id,course.dept_name FROM takes JOIN student ON takes.ID = student.ID JOIN section ON takes.course_id = section.course_id JOIN course ON section.course_id = course.course_id</t>
-  </si>
-  <si>
     <t>1. Run dengan menggunakan terminal Query di atas dan catat waktunya</t>
   </si>
   <si>
@@ -134,13 +110,229 @@
   </si>
   <si>
     <t>4. Lakukan pada setiap Query</t>
+  </si>
+  <si>
+    <t>Query 1</t>
+  </si>
+  <si>
+    <t>Query 2</t>
+  </si>
+  <si>
+    <t>Query 3</t>
+  </si>
+  <si>
+    <t>Query 4</t>
+  </si>
+  <si>
+    <t>Query 5</t>
+  </si>
+  <si>
+    <t>0.07379450</t>
+  </si>
+  <si>
+    <t>0.03909870</t>
+  </si>
+  <si>
+    <t>0.00041470</t>
+  </si>
+  <si>
+    <t>0.05071960</t>
+  </si>
+  <si>
+    <t>SELECT * FROM student;</t>
+  </si>
+  <si>
+    <t>SELECT *  FROM takes JOIN student ON takes.ID = student.ID JOIN section ON takes.course_id = section.course_id;</t>
+  </si>
+  <si>
+    <t>SELECT student.`name`,student.dept_name,takes.sec_id AS pengambilan,takes.semester,section.room_number,section.building,course.course_id,course.dept_name FROM takes JOIN student ON takes.ID = student.ID JOIN section ON takes.course_id = section.course_id JOIN course ON section.course_id = course.course_id;</t>
+  </si>
+  <si>
+    <t>0.00342050</t>
+  </si>
+  <si>
+    <t>0.00083740</t>
+  </si>
+  <si>
+    <t>0.00251500</t>
+  </si>
+  <si>
+    <t>SELECT `name`, 'department' FROM student WHERE tot_cred &gt; 30;</t>
+  </si>
+  <si>
+    <t>0.00135640</t>
+  </si>
+  <si>
+    <t>0.07621720</t>
+  </si>
+  <si>
+    <t>0.00810680</t>
+  </si>
+  <si>
+    <t>0.10052030</t>
+  </si>
+  <si>
+    <t>0.00079970</t>
+  </si>
+  <si>
+    <t>0.00174130</t>
+  </si>
+  <si>
+    <t>0.21829590</t>
+  </si>
+  <si>
+    <t>0.08182540</t>
+  </si>
+  <si>
+    <t>0.00123130</t>
+  </si>
+  <si>
+    <t>0.00250520</t>
+  </si>
+  <si>
+    <t>0.00197080</t>
+  </si>
+  <si>
+    <t>Waktu Sebelum Tunning (s)</t>
+  </si>
+  <si>
+    <t>2. 89080080</t>
+  </si>
+  <si>
+    <t>1. 69338590</t>
+  </si>
+  <si>
+    <t>0.00136080</t>
+  </si>
+  <si>
+    <t>0.00134310</t>
+  </si>
+  <si>
+    <t>0.00049500</t>
+  </si>
+  <si>
+    <t>0.07249030</t>
+  </si>
+  <si>
+    <t>0.06060230</t>
+  </si>
+  <si>
+    <t>0.00099220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00133220 </t>
+  </si>
+  <si>
+    <t>0.00135830</t>
+  </si>
+  <si>
+    <t>0.07680630</t>
+  </si>
+  <si>
+    <t>0.02581250</t>
+  </si>
+  <si>
+    <t>0.00191680</t>
+  </si>
+  <si>
+    <t>0.00186770</t>
+  </si>
+  <si>
+    <t>0.00156190</t>
+  </si>
+  <si>
+    <t>0.12967340</t>
+  </si>
+  <si>
+    <t>0.08392690</t>
+  </si>
+  <si>
+    <t>0.00107780</t>
+  </si>
+  <si>
+    <t>0.00230160</t>
+  </si>
+  <si>
+    <t>0.00196760</t>
+  </si>
+  <si>
+    <t>3. 02769670</t>
+  </si>
+  <si>
+    <t>1. 61127640</t>
+  </si>
+  <si>
+    <t>0.00127250</t>
+  </si>
+  <si>
+    <t>0.00107090</t>
+  </si>
+  <si>
+    <t>0.00110380</t>
+  </si>
+  <si>
+    <t>0.00508820</t>
+  </si>
+  <si>
+    <t>0.00444580</t>
+  </si>
+  <si>
+    <t>0.00170370</t>
+  </si>
+  <si>
+    <t>0.00177210</t>
+  </si>
+  <si>
+    <t>0.00183560</t>
+  </si>
+  <si>
+    <t>0.01333860</t>
+  </si>
+  <si>
+    <t>0.01406140</t>
+  </si>
+  <si>
+    <t>0.00345910</t>
+  </si>
+  <si>
+    <t>0.00228580</t>
+  </si>
+  <si>
+    <t>0.00218780</t>
+  </si>
+  <si>
+    <t>0.03660710</t>
+  </si>
+  <si>
+    <t>0.02323380</t>
+  </si>
+  <si>
+    <t>0.00208870</t>
+  </si>
+  <si>
+    <t>0.00246890</t>
+  </si>
+  <si>
+    <t>0.00217010</t>
+  </si>
+  <si>
+    <t>2. 03770480</t>
+  </si>
+  <si>
+    <t>0.99945690</t>
+  </si>
+  <si>
+    <t>Waktu Setelah Tunning Index (ms)</t>
+  </si>
+  <si>
+    <t>Waktu Setelah Tunning DBMS (ms)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -157,15 +349,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -188,16 +392,322 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -258,7 +768,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -310,7 +820,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -504,230 +1014,512 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7283ED88-C5BB-2349-93B1-5D98200E2DE2}">
-  <dimension ref="A2:C28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="61.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5" customWidth="1"/>
-    <col min="3" max="3" width="26.83203125" customWidth="1"/>
+    <col min="1" max="1" width="61.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.19921875" customWidth="1"/>
+    <col min="3" max="3" width="11.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:16" ht="16.2" thickBot="1"/>
+    <row r="2" spans="1:16" ht="16.2" thickBot="1">
+      <c r="A2" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="24"/>
+    </row>
+    <row r="3" spans="1:16" ht="16.2" thickBot="1">
+      <c r="A3" s="21"/>
+      <c r="B3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="P5" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P6" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O7" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="P7" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="13"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="13"/>
+    </row>
+    <row r="10" spans="1:16" ht="16.2" thickBot="1">
+      <c r="A10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="16"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>22</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="L2:P2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EEE10EE-7B32-C94F-84A3-EE8D948576BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="7" spans="1:2">
+      <c r="B7" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="8" spans="1:2">
+      <c r="B8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="9" spans="1:2">
+      <c r="B9" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B9" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/tugas/laporan.xlsx
+++ b/tugas/laporan.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karunia/Documents/lecturer - DBMS/2019:2020/IF3144-1920/tugas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Yosua\MBD\IF3144-1920\tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F409652C-A4B2-B041-93C9-55CCCBF85C91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B008C0BE-71CD-4BCE-88E6-7548F9C46D5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" xr2:uid="{3C9D5799-7662-CB47-8B99-82C16436D226}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{3C9D5799-7662-CB47-8B99-82C16436D226}"/>
   </bookViews>
   <sheets>
     <sheet name="Tugas" sheetId="1" r:id="rId1"/>
-    <sheet name="Laporan" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Laporan" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
   <si>
     <t>advisor = 100, student = 100, section = 200,takes = 200</t>
   </si>
@@ -73,18 +74,6 @@
     <t>SELECT * FROM student WHERE tot_cred &gt; 30;</t>
   </si>
   <si>
-    <t>SELECT * FROM student</t>
-  </si>
-  <si>
-    <t>SELECT `name`, department FROM student WHERE tot_cred &gt; 30;</t>
-  </si>
-  <si>
-    <t>SELECT *  FROM takes JOIN student ON takes.ID = student.ID JOIN section ON takes.course_id = section.course_id</t>
-  </si>
-  <si>
-    <t>SELECT student.`name`,student.dept_name,takes.sec_id AS pengambilan,takes.semester,section.room_number,section.building,course.course_id,course.dept_name FROM takes JOIN student ON takes.ID = student.ID JOIN section ON takes.course_id = section.course_id JOIN course ON section.course_id = course.course_id</t>
-  </si>
-  <si>
     <t>1. Run dengan menggunakan terminal Query di atas dan catat waktunya</t>
   </si>
   <si>
@@ -134,13 +123,47 @@
   </si>
   <si>
     <t>4. Lakukan pada setiap Query</t>
+  </si>
+  <si>
+    <t>query 1</t>
+  </si>
+  <si>
+    <t>query 2</t>
+  </si>
+  <si>
+    <t>query 3</t>
+  </si>
+  <si>
+    <t>query 4</t>
+  </si>
+  <si>
+    <t>query 5</t>
+  </si>
+  <si>
+    <t>DATA</t>
+  </si>
+  <si>
+    <t>SELECT name, dept_name FROM student WHERE tot_cred &gt; 30;</t>
+  </si>
+  <si>
+    <t>SELECT * FROM student;</t>
+  </si>
+  <si>
+    <t>SELECT *  FROM takes JOIN student ON takes.ID = student.ID JOIN section ON takes.course_id = section.course_id;</t>
+  </si>
+  <si>
+    <t>SELECT student.name,student.dept_name,takes.sec_id AS pengambilan,takes.semester,section.room_number,section.building,course.course_id,course.dept_name FROM takes JOIN student ON takes.ID = student.ID JOIN section ON takes.course_id = section.course_id JOIN course ON section.course_id = course.course_id;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="170" formatCode="#,##0.000000"/>
+    <numFmt numFmtId="171" formatCode="#,##0.0000000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -152,6 +175,12 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -192,12 +221,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,18 +552,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7283ED88-C5BB-2349-93B1-5D98200E2DE2}">
   <dimension ref="A2:C28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="61.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.5" customWidth="1"/>
     <col min="3" max="3" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -536,198 +574,409 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4F9F8B-7E1E-430C-8F62-1AB983691057}">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="60.4140625" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.75" customWidth="1"/>
+    <col min="4" max="4" width="11.4140625" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="5"/>
+      <c r="B2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>22</v>
-      </c>
+      <c r="F2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3">
+        <f>0.0833431*1000</f>
+        <v>83.343100000000007</v>
+      </c>
+      <c r="C3" s="3">
+        <f>1000*0.0028499</f>
+        <v>2.8498999999999999</v>
+      </c>
+      <c r="D3" s="3">
+        <f>1000*0.0013901</f>
+        <v>1.3901000000000001</v>
+      </c>
+      <c r="E3" s="3">
+        <f>1000*0.0397428</f>
+        <v>39.742800000000003</v>
+      </c>
+      <c r="F3" s="3">
+        <f>1000*0.0412214</f>
+        <v>41.221399999999996</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <f>0.0010717*1000</f>
+        <v>1.0717000000000001</v>
+      </c>
+      <c r="C4" s="3">
+        <f>1000*0.0010271</f>
+        <v>1.0270999999999999</v>
+      </c>
+      <c r="D4" s="3">
+        <f>1000*0.0012833</f>
+        <v>1.2833000000000001</v>
+      </c>
+      <c r="E4" s="3">
+        <f>1000*0.0084081</f>
+        <v>8.4080999999999992</v>
+      </c>
+      <c r="F4" s="3">
+        <f>1000*0.0081348</f>
+        <v>8.1347999999999985</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <f>0.0015358*1000</f>
+        <v>1.5357999999999998</v>
+      </c>
+      <c r="C5" s="3">
+        <f>1000*0.0016622</f>
+        <v>1.6621999999999999</v>
+      </c>
+      <c r="D5" s="3">
+        <f>1000*0.0015934</f>
+        <v>1.5933999999999999</v>
+      </c>
+      <c r="E5" s="3">
+        <f>1000*0.0306967</f>
+        <v>30.6967</v>
+      </c>
+      <c r="F5" s="3">
+        <f>1000*0.0201528</f>
+        <v>20.152799999999999</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <f>0.0065282*1000</f>
+        <v>6.5282</v>
+      </c>
+      <c r="C6" s="3">
+        <f>1000*0.0022899</f>
+        <v>2.2899000000000003</v>
+      </c>
+      <c r="D6" s="3">
+        <f>1000*0.0016205</f>
+        <v>1.6205000000000001</v>
+      </c>
+      <c r="E6" s="9">
+        <f>1000*3.6719246</f>
+        <v>3671.9246000000003</v>
+      </c>
+      <c r="F6" s="8">
+        <f>1000*1.7717878</f>
+        <v>1771.7878000000001</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="7"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EEE10EE-7B32-C94F-84A3-EE8D948576BC}">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B6" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B7" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B9" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B10" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B9" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/tugas/laporan.xlsx
+++ b/tugas/laporan.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karunia/Documents/lecturer - DBMS/2019:2020/IF3144-1920/tugas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\SMESTER 5\MBD\14117026_TubesMBD_RB\tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F409652C-A4B2-B041-93C9-55CCCBF85C91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" xr2:uid="{3C9D5799-7662-CB47-8B99-82C16436D226}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11052" windowHeight="8364"/>
   </bookViews>
   <sheets>
-    <sheet name="Tugas" sheetId="1" r:id="rId1"/>
-    <sheet name="Laporan" sheetId="2" r:id="rId2"/>
+    <sheet name="HASIL SEBELUM &amp; SESUDAH TUNING" sheetId="3" r:id="rId1"/>
+    <sheet name="Tugas" sheetId="1" r:id="rId2"/>
+    <sheet name="Laporan" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
   <si>
     <t>advisor = 100, student = 100, section = 200,takes = 200</t>
   </si>
@@ -134,13 +134,46 @@
   </si>
   <si>
     <t>4. Lakukan pada setiap Query</t>
+  </si>
+  <si>
+    <t>HASIL SEBELUM DAN SESUDAH TUNING</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>DATA</t>
+  </si>
+  <si>
+    <t>WAKTU SEBELUM TUNING (ms)</t>
+  </si>
+  <si>
+    <t>Queri 1</t>
+  </si>
+  <si>
+    <t>Queri 2</t>
+  </si>
+  <si>
+    <t>Queri 3</t>
+  </si>
+  <si>
+    <t>Queri 4</t>
+  </si>
+  <si>
+    <t>Queri 5</t>
+  </si>
+  <si>
+    <t>WAKTU SETELAH TUNING INDEXING (ms)</t>
+  </si>
+  <si>
+    <t>WAKTU SETELAH TUNING DBMS (ms)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -156,6 +189,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -165,7 +204,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -188,16 +227,308 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,147 +842,492 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7283ED88-C5BB-2349-93B1-5D98200E2DE2}">
-  <dimension ref="A2:C28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D3:T15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="61.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5" customWidth="1"/>
-    <col min="3" max="3" width="26.83203125" customWidth="1"/>
+    <col min="4" max="4" width="8.796875" customWidth="1"/>
+    <col min="5" max="5" width="61.796875" customWidth="1"/>
+    <col min="6" max="6" width="16.3984375" customWidth="1"/>
+    <col min="7" max="7" width="15.796875" customWidth="1"/>
+    <col min="8" max="8" width="17.69921875" customWidth="1"/>
+    <col min="9" max="9" width="17.5" customWidth="1"/>
+    <col min="10" max="10" width="17.69921875" customWidth="1"/>
+    <col min="11" max="12" width="17.59765625" customWidth="1"/>
+    <col min="13" max="13" width="17.3984375" customWidth="1"/>
+    <col min="14" max="14" width="17.8984375" customWidth="1"/>
+    <col min="15" max="15" width="26.296875" customWidth="1"/>
+    <col min="16" max="16" width="17.296875" customWidth="1"/>
+    <col min="17" max="17" width="17.59765625" customWidth="1"/>
+    <col min="18" max="18" width="17.69921875" customWidth="1"/>
+    <col min="19" max="20" width="17.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="4:20" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="E3" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="4:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+    </row>
+    <row r="7" spans="4:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D7" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="8"/>
+    </row>
+    <row r="8" spans="4:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D8" s="11"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="O8" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="P8" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q8" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="R8" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="S8" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="T8" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="4:20" x14ac:dyDescent="0.3">
+      <c r="D9" s="18">
+        <v>1</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="28">
+        <v>1.6351399999999999E-2</v>
+      </c>
+      <c r="G9" s="29">
+        <v>4.9365600000000003E-2</v>
+      </c>
+      <c r="H9" s="29">
+        <v>3.28E-4</v>
+      </c>
+      <c r="I9" s="30">
+        <v>1.8576E-3</v>
+      </c>
+      <c r="J9" s="29">
+        <v>1.4989999999999999E-3</v>
+      </c>
+      <c r="K9" s="29">
+        <v>3.5659999999999999E-4</v>
+      </c>
+      <c r="L9" s="28">
+        <v>8.7370000000000004E-4</v>
+      </c>
+      <c r="M9" s="33">
+        <v>2.8739999999999999E-4</v>
+      </c>
+      <c r="N9" s="29">
+        <v>1.6205E-3</v>
+      </c>
+      <c r="O9" s="28">
+        <v>1.3548E-3</v>
+      </c>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="10"/>
+    </row>
+    <row r="10" spans="4:20" x14ac:dyDescent="0.3">
+      <c r="D10" s="18">
+        <v>2</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="28">
+        <v>5.0730000000000003E-4</v>
+      </c>
+      <c r="G10" s="29">
+        <v>1.2620000000000001E-3</v>
+      </c>
+      <c r="H10" s="29">
+        <v>3.323E-4</v>
+      </c>
+      <c r="I10" s="30">
+        <v>2.9142E-3</v>
+      </c>
+      <c r="J10" s="29">
+        <v>2.6646999999999999E-3</v>
+      </c>
+      <c r="K10" s="29">
+        <v>3.7629999999999999E-4</v>
+      </c>
+      <c r="L10" s="28">
+        <v>5.622E-4</v>
+      </c>
+      <c r="M10" s="34">
+        <v>3.48E-4</v>
+      </c>
+      <c r="N10" s="29">
+        <v>3.0660000000000001E-3</v>
+      </c>
+      <c r="O10" s="28">
+        <v>2.5523999999999998E-3</v>
+      </c>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="28"/>
+    </row>
+    <row r="11" spans="4:20" x14ac:dyDescent="0.3">
+      <c r="D11" s="18">
+        <v>3</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="28">
+        <v>5.8589999999999998E-4</v>
+      </c>
+      <c r="G11" s="29">
+        <v>1.5962999999999999E-3</v>
+      </c>
+      <c r="H11" s="29">
+        <v>4.5380000000000003E-4</v>
+      </c>
+      <c r="I11" s="30">
+        <v>9.6608000000000006E-3</v>
+      </c>
+      <c r="J11" s="29">
+        <v>6.9702000000000002E-3</v>
+      </c>
+      <c r="K11" s="29">
+        <v>9.5451499999999995E-2</v>
+      </c>
+      <c r="L11" s="28">
+        <v>5.1400000000000003E-4</v>
+      </c>
+      <c r="M11" s="34">
+        <v>4.8549999999999998E-4</v>
+      </c>
+      <c r="N11" s="29">
+        <v>8.9061000000000001E-3</v>
+      </c>
+      <c r="O11" s="28">
+        <v>6.8035999999999999E-3</v>
+      </c>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="28"/>
+    </row>
+    <row r="12" spans="4:20" x14ac:dyDescent="0.3">
+      <c r="D12" s="18">
+        <v>4</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="10"/>
+    </row>
+    <row r="13" spans="4:20" x14ac:dyDescent="0.3">
+      <c r="D13" s="18">
+        <v>5</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="10"/>
+    </row>
+    <row r="14" spans="4:20" x14ac:dyDescent="0.3">
+      <c r="D14" s="18">
+        <v>6</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="10"/>
+    </row>
+    <row r="15" spans="4:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D15" s="22">
+        <v>7</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="16"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:C29"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:Q18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="61.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5" customWidth="1"/>
+    <col min="3" max="3" width="26.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>1</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>22</v>
       </c>
     </row>
@@ -660,72 +1336,72 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EEE10EE-7B32-C94F-84A3-EE8D948576BC}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>27</v>
       </c>

--- a/tugas/laporan.xlsx
+++ b/tugas/laporan.xlsx
@@ -1,22 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karunia/Documents/lecturer - DBMS/2019:2020/IF3144-1920/tugas/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F409652C-A4B2-B041-93C9-55CCCBF85C91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" xr2:uid="{3C9D5799-7662-CB47-8B99-82C16436D226}"/>
+    <workbookView xWindow="375" yWindow="465" windowWidth="20730" windowHeight="11760" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tugas" sheetId="1" r:id="rId1"/>
-    <sheet name="Laporan" sheetId="2" r:id="rId2"/>
+    <sheet name="Tugas (2)" sheetId="3" r:id="rId2"/>
+    <sheet name="Tugas (3)" sheetId="4" r:id="rId3"/>
+    <sheet name="Tugas (4)" sheetId="5" r:id="rId4"/>
+    <sheet name="Tugas (5)" sheetId="6" r:id="rId5"/>
+    <sheet name="Laporan" sheetId="2" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="34">
   <si>
     <t>advisor = 100, student = 100, section = 200,takes = 200</t>
   </si>
@@ -139,7 +137,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -258,7 +256,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -310,7 +308,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -504,28 +502,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7283ED88-C5BB-2349-93B1-5D98200E2DE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="61.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.5" customWidth="1"/>
-    <col min="3" max="3" width="26.83203125" customWidth="1"/>
+    <col min="3" max="3" width="26.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -536,121 +534,132 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="3">
+        <f>0.16*1000</f>
+        <v>160</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -661,71 +670,721 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EEE10EE-7B32-C94F-84A3-EE8D948576BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C28"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="61.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5" customWidth="1"/>
+    <col min="3" max="3" width="26.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C28"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="61.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5" customWidth="1"/>
+    <col min="3" max="3" width="26.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C28"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="61.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5" customWidth="1"/>
+    <col min="3" max="3" width="26.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3">
+        <v>80</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3">
+        <f>0.01*1000</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>50</v>
+      </c>
+      <c r="C5" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C28"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="61.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5" customWidth="1"/>
+    <col min="3" max="3" width="26.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3">
+        <v>30</v>
+      </c>
+      <c r="C3" s="3">
+        <f>0.01*1000</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>30</v>
+      </c>
+      <c r="C5" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>

--- a/tugas/laporan.xlsx
+++ b/tugas/laporan.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karunia/Documents/lecturer - DBMS/2019:2020/IF3144-1920/tugas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\IF3144-1920-master\tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F409652C-A4B2-B041-93C9-55CCCBF85C91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" xr2:uid="{3C9D5799-7662-CB47-8B99-82C16436D226}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6105"/>
   </bookViews>
   <sheets>
     <sheet name="Tugas" sheetId="1" r:id="rId1"/>
     <sheet name="Laporan" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="40">
   <si>
     <t>advisor = 100, student = 100, section = 200,takes = 200</t>
   </si>
@@ -134,12 +133,30 @@
   </si>
   <si>
     <t>4. Lakukan pada setiap Query</t>
+  </si>
+  <si>
+    <t>QUERY 1</t>
+  </si>
+  <si>
+    <t>QUERY 2</t>
+  </si>
+  <si>
+    <t>QUERY 3</t>
+  </si>
+  <si>
+    <t>QUERY 4</t>
+  </si>
+  <si>
+    <t>QUERY 5</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -165,7 +182,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -188,16 +205,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,221 +561,466 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7283ED88-C5BB-2349-93B1-5D98200E2DE2}">
-  <dimension ref="A2:C28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5" customWidth="1"/>
-    <col min="3" max="3" width="26.83203125" customWidth="1"/>
+    <col min="1" max="1" width="61.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.375" customWidth="1"/>
+    <col min="8" max="8" width="7.75" customWidth="1"/>
+    <col min="9" max="9" width="7.625" customWidth="1"/>
+    <col min="10" max="11" width="8.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="B1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="B3" s="2">
+        <v>5.7710299999999999E-2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3.678E-4</v>
+      </c>
+      <c r="D3" s="2">
+        <v>3.4909999999999997E-4</v>
+      </c>
+      <c r="E3" s="2">
+        <v>9.1142500000000001E-2</v>
+      </c>
+      <c r="F3" s="2">
+        <v>5.0515299999999999E-2</v>
+      </c>
+      <c r="G3" s="2">
+        <v>4.1110000000000002E-4</v>
+      </c>
+      <c r="H3" s="2">
+        <v>3.4600000000000001E-4</v>
+      </c>
+      <c r="I3" s="2">
+        <v>3.4309999999999999E-4</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1.6470999999999999E-4</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1.4311E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="B4" s="2">
+        <v>4.6359999999999999E-4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>6.2620000000000004E-4</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3.6143E-3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3.0785000000000001E-3</v>
+      </c>
+      <c r="F4" s="2">
+        <v>5.2360000000000004E-4</v>
+      </c>
+      <c r="G4" s="2">
+        <v>4.013E-4</v>
+      </c>
+      <c r="H4" s="2">
+        <v>4.7390000000000003E-4</v>
+      </c>
+      <c r="I4" s="2">
+        <v>4.0840000000000001E-4</v>
+      </c>
+      <c r="J4" s="2">
+        <v>3.7843E-3</v>
+      </c>
+      <c r="K4" s="2">
+        <v>2.9432E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="B5" s="2">
+        <v>8.2456600000000005E-2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>9.2960000000000004E-4</v>
+      </c>
+      <c r="D5" s="2">
+        <v>5.0060000000000002E-4</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.53413699999999997</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.56575640000000005</v>
+      </c>
+      <c r="G5" s="2">
+        <v>6.1359999999999995E-4</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.1314535</v>
+      </c>
+      <c r="I5" s="2">
+        <v>5.042E-4</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.62759430000000005</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.33083810000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="B6" s="2">
+        <v>4.4920399999999999E-2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3.3159999999999998E-4</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3.6388000000000002E-4</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1.5384999999999999E-3</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2.6548000000000001E-3</v>
+      </c>
+      <c r="G6" s="2">
+        <v>3.4519999999999999E-4</v>
+      </c>
+      <c r="H6" s="2">
+        <v>3.4870000000000002E-4</v>
+      </c>
+      <c r="I6" s="2">
+        <v>3.1629999999999999E-4</v>
+      </c>
+      <c r="J6" s="2">
+        <v>9.7050999999999995E-3</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1.4040000000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="B7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="B8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="G1:K1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EEE10EE-7B32-C94F-84A3-EE8D948576BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B9" s="4" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>

--- a/tugas/laporan.xlsx
+++ b/tugas/laporan.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karunia/Documents/lecturer - DBMS/2019:2020/IF3144-1920/tugas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\IF3144-1920\tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F409652C-A4B2-B041-93C9-55CCCBF85C91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD021BEC-7D31-4BF9-945A-D9A9FA2DB59D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" xr2:uid="{3C9D5799-7662-CB47-8B99-82C16436D226}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{3C9D5799-7662-CB47-8B99-82C16436D226}"/>
   </bookViews>
   <sheets>
     <sheet name="Tugas" sheetId="1" r:id="rId1"/>
-    <sheet name="Laporan" sheetId="2" r:id="rId2"/>
+    <sheet name="Data Grafiks" sheetId="3" r:id="rId2"/>
+    <sheet name="Laporan" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
   <si>
     <t>advisor = 100, student = 100, section = 200,takes = 200</t>
   </si>
@@ -55,12 +56,6 @@
     <t>advisor = 10000, student = 10000, section = 30000000,takes = 30000000</t>
   </si>
   <si>
-    <t>Waktu Sebelum Tunning (ms)</t>
-  </si>
-  <si>
-    <t>Waktu Sesudah Tuning (ms)</t>
-  </si>
-  <si>
     <t>Data</t>
   </si>
   <si>
@@ -134,13 +129,61 @@
   </si>
   <si>
     <t>4. Lakukan pada setiap Query</t>
+  </si>
+  <si>
+    <t>Query 1</t>
+  </si>
+  <si>
+    <t>Query 2</t>
+  </si>
+  <si>
+    <t>Query 5</t>
+  </si>
+  <si>
+    <t>Query 3</t>
+  </si>
+  <si>
+    <t>Query4</t>
+  </si>
+  <si>
+    <t>Waktu Sebelum Tunning (s)</t>
+  </si>
+  <si>
+    <t>Waktu Sesudah Tunning (s)</t>
+  </si>
+  <si>
+    <t>Nama : Nur Ali Majid</t>
+  </si>
+  <si>
+    <t>NIM : 14115015</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Q5</t>
+  </si>
+  <si>
+    <t>Ket :</t>
+  </si>
+  <si>
+    <t>3 Data yang dipilih telah di warnai dan di bold</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -156,16 +199,63 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -188,16 +278,109 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -213,6 +396,3358 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-ID"/>
+              <a:t>Grafiks Data 1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tugas!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Waktu Sebelum Tunning (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Tugas!$B$5:$F$6</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Tugas!$B$6:$F$6</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Tugas!$B$6:$F$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Query 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Query 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Query 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Query4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Query 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tugas!$B$7:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-693E-4287-AB18-F98BA3189BA9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tugas!$G$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Waktu Sesudah Tunning (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Tugas!$G$7:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-693E-4287-AB18-F98BA3189BA9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="243555584"/>
+        <c:axId val="252823776"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="243555584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-ID"/>
+                  <a:t>Query Data</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-ID" baseline="0"/>
+                  <a:t> 1</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-ID"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="252823776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="252823776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-ID"/>
+                  <a:t>waktu</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-ID" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-ID"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="243555584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-ID"/>
+              <a:t>Grafiks Data 2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tugas!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Waktu Sebelum Tunning (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tugas!$B$6:$F$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Query 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Query 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Query 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Query4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Query 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tugas!$B$8:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.5999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1D2F-4369-A3E2-F3D0FC8E08A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tugas!$G$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Waktu Sesudah Tunning (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Tugas!$G$8:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1D2F-4369-A3E2-F3D0FC8E08A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="246363472"/>
+        <c:axId val="365069024"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="246363472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-ID"/>
+                  <a:t>Query Data 2</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="365069024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="365069024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-ID"/>
+                  <a:t>Waktu (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="246363472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-ID"/>
+              <a:t>Grafiks Data 3</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tugas!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Waktu Sebelum Tunning (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tugas!$B$6:$F$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Query 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Query 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Query 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Query4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Query 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tugas!$B$9:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.9000000000000006E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5A19-4AA3-87E4-1714ECDAA4EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tugas!$G$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Waktu Sesudah Tunning (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Tugas!$G$9:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5A19-4AA3-87E4-1714ECDAA4EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="375353008"/>
+        <c:axId val="250567760"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="375353008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-ID"/>
+                  <a:t>Query Data 3</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="250567760"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="250567760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-ID"/>
+                  <a:t>Waktu (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="375353008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>328613</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>195263</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A097B25F-4EDD-4D66-BAB3-E039FA7F7B03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>604838</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AD2F73C-9666-44F7-9C6C-AAE98B9F4018}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5720A8D-90F3-4C02-9DEC-627DE7B23205}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -512,155 +4047,388 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7283ED88-C5BB-2349-93B1-5D98200E2DE2}">
-  <dimension ref="A2:C28"/>
+  <dimension ref="A2:K36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5" customWidth="1"/>
-    <col min="3" max="3" width="26.83203125" customWidth="1"/>
+    <col min="1" max="1" width="61.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.75" customWidth="1"/>
+    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="5" max="5" width="8.75" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="9.875" customWidth="1"/>
+    <col min="8" max="8" width="8.25" customWidth="1"/>
+    <col min="9" max="9" width="8.125" customWidth="1"/>
+    <col min="10" max="10" width="8.875" customWidth="1"/>
+    <col min="11" max="11" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="8"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="C7" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="E7" s="13">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="F7" s="13">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G7" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="H7" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="I7" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="J7" s="13">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K7" s="13">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="13">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="C8" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="D8" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="E8" s="14">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="F8" s="13">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G8" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="H8" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="I8" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="J8" s="14">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="K8" s="13">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="C9" s="13">
+        <v>2E-3</v>
+      </c>
+      <c r="D9" s="13">
+        <v>2E-3</v>
+      </c>
+      <c r="E9" s="13">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="F9" s="13">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="G9" s="13">
+        <v>2E-3</v>
+      </c>
+      <c r="H9" s="13">
+        <v>2E-3</v>
+      </c>
+      <c r="I9" s="13">
+        <v>2E-3</v>
+      </c>
+      <c r="J9" s="13">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="K9" s="13">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="G5:K5"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1443E6D4-08D7-4B3B-9A68-605C344A85E7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EEE10EE-7B32-C94F-84A3-EE8D948576BC}">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -668,66 +4436,66 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B9" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/tugas/laporan.xlsx
+++ b/tugas/laporan.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karunia/Documents/lecturer - DBMS/2019:2020/IF3144-1920/tugas/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F409652C-A4B2-B041-93C9-55CCCBF85C91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" xr2:uid="{3C9D5799-7662-CB47-8B99-82C16436D226}"/>
+    <workbookView xWindow="375" yWindow="465" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Tugas" sheetId="1" r:id="rId1"/>
@@ -32,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>advisor = 100, student = 100, section = 200,takes = 200</t>
   </si>
@@ -134,12 +128,27 @@
   </si>
   <si>
     <t>4. Lakukan pada setiap Query</t>
+  </si>
+  <si>
+    <t>query 1</t>
+  </si>
+  <si>
+    <t>query 2</t>
+  </si>
+  <si>
+    <t>query 3</t>
+  </si>
+  <si>
+    <t>query 4</t>
+  </si>
+  <si>
+    <t>query 5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -165,7 +174,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -188,16 +197,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -258,7 +304,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -310,7 +356,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -504,228 +550,408 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7283ED88-C5BB-2349-93B1-5D98200E2DE2}">
-  <dimension ref="A2:C28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:K28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5" customWidth="1"/>
-    <col min="3" max="3" width="26.83203125" customWidth="1"/>
+    <col min="1" max="1" width="61.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="5">
+        <v>11.6</v>
+      </c>
+      <c r="C4" s="5">
+        <v>56</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2.9</v>
+      </c>
+      <c r="F4" s="5">
+        <v>55.2</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1</v>
+      </c>
+      <c r="H4" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="I4" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="J4" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="K4" s="6">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="5">
+        <v>55.7</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F5" s="5">
+        <v>56.5</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="I5" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J5" s="5">
+        <v>2</v>
+      </c>
+      <c r="K5" s="5">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="5">
+        <v>19.7</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1.4</v>
+      </c>
+      <c r="E6" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F6" s="5">
+        <v>25.1</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J6" s="5">
+        <v>2</v>
+      </c>
+      <c r="K6" s="5">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="5">
+        <v>22.1</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="E7" s="5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F7" s="5">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="J7" s="5">
+        <v>1.9</v>
+      </c>
+      <c r="K7" s="5">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:K2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EEE10EE-7B32-C94F-84A3-EE8D948576BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>

--- a/tugas/laporan.xlsx
+++ b/tugas/laporan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\IF3144-1920-master\tugas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\GitHub\IF3144-1920\tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B52EFF-2095-4D4F-AC82-B0175E10DB40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2AF1A13-3260-48B9-B4DB-1D29DBB08DC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{3C9D5799-7662-CB47-8B99-82C16436D226}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3C9D5799-7662-CB47-8B99-82C16436D226}"/>
   </bookViews>
   <sheets>
     <sheet name="Tugas" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>advisor = 100, student = 100, section = 200,takes = 200</t>
   </si>
@@ -134,6 +134,30 @@
   </si>
   <si>
     <t>SELECT dept_name FROM student WHERE tot_cred &gt; 30;</t>
+  </si>
+  <si>
+    <t>3, 4, 4.1, 7, 11.4</t>
+  </si>
+  <si>
+    <t>2.9, 3.9, 3.7, 6.3, 11.2</t>
+  </si>
+  <si>
+    <t>3.1, 4, 4, 6.8, 11.1</t>
+  </si>
+  <si>
+    <t>3, 3.5, 3.5, 6.2, 10.6</t>
+  </si>
+  <si>
+    <t>3.3, 4, 4.5, 7.3, 11.6</t>
+  </si>
+  <si>
+    <t>3.2, 3.4, 3.6, 6.3, 10.9</t>
+  </si>
+  <si>
+    <t>46.8, 106.9, 3.8, 74.8, 69.2</t>
+  </si>
+  <si>
+    <t>4.3, 3.7, 3.7, 20.4, 27.1</t>
   </si>
 </sst>
 </file>
@@ -514,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7283ED88-C5BB-2349-93B1-5D98200E2DE2}">
   <dimension ref="A2:C28"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -540,29 +564,45 @@
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -664,7 +704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EEE10EE-7B32-C94F-84A3-EE8D948576BC}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>

--- a/tugas/laporan.xlsx
+++ b/tugas/laporan.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karunia/Documents/lecturer - DBMS/2019:2020/IF3144-1920/tugas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T O S H I B A\Downloads\IF3144-1920-master\IF3144-1920-master\tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F409652C-A4B2-B041-93C9-55CCCBF85C91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" xr2:uid="{3C9D5799-7662-CB47-8B99-82C16436D226}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Tugas" sheetId="1" r:id="rId1"/>
     <sheet name="Laporan" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t>advisor = 100, student = 100, section = 200,takes = 200</t>
   </si>
@@ -58,9 +57,6 @@
     <t>Waktu Sebelum Tunning (ms)</t>
   </si>
   <si>
-    <t>Waktu Sesudah Tuning (ms)</t>
-  </si>
-  <si>
     <t>Data</t>
   </si>
   <si>
@@ -73,18 +69,6 @@
     <t>SELECT * FROM student WHERE tot_cred &gt; 30;</t>
   </si>
   <si>
-    <t>SELECT * FROM student</t>
-  </si>
-  <si>
-    <t>SELECT `name`, department FROM student WHERE tot_cred &gt; 30;</t>
-  </si>
-  <si>
-    <t>SELECT *  FROM takes JOIN student ON takes.ID = student.ID JOIN section ON takes.course_id = section.course_id</t>
-  </si>
-  <si>
-    <t>SELECT student.`name`,student.dept_name,takes.sec_id AS pengambilan,takes.semester,section.room_number,section.building,course.course_id,course.dept_name FROM takes JOIN student ON takes.ID = student.ID JOIN section ON takes.course_id = section.course_id JOIN course ON section.course_id = course.course_id</t>
-  </si>
-  <si>
     <t>1. Run dengan menggunakan terminal Query di atas dan catat waktunya</t>
   </si>
   <si>
@@ -134,12 +118,45 @@
   </si>
   <si>
     <t>4. Lakukan pada setiap Query</t>
+  </si>
+  <si>
+    <t>SELECT `dept_name` FROM student WHERE tot_cred &gt; 30;</t>
+  </si>
+  <si>
+    <t>Query 1</t>
+  </si>
+  <si>
+    <t>Query 2</t>
+  </si>
+  <si>
+    <t>Query 3</t>
+  </si>
+  <si>
+    <t>Query 4</t>
+  </si>
+  <si>
+    <t>Query 5</t>
+  </si>
+  <si>
+    <t>Waktu Sesudah Tuning indexing (ms)</t>
+  </si>
+  <si>
+    <t>Waktu Sesudah Tuning DBMS (ms)</t>
+  </si>
+  <si>
+    <t>SELECT * FROM student;</t>
+  </si>
+  <si>
+    <t>SELECT *  FROM takes JOIN student ON takes.ID = student.ID JOIN section ON takes.course_id = section.course_id;</t>
+  </si>
+  <si>
+    <t>SELECT student.`name`,student.dept_name,takes.sec_id AS pengambilan,takes.semester,section.room_number,section.building,course.course_id,course.dept_name FROM takes JOIN student ON takes.ID = student.ID JOIN section ON takes.course_id = section.course_id JOIN course ON section.course_id = course.course_id;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -165,7 +182,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -188,16 +205,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,223 +577,474 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7283ED88-C5BB-2349-93B1-5D98200E2DE2}">
-  <dimension ref="A2:C28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:P29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5" customWidth="1"/>
-    <col min="3" max="3" width="26.83203125" customWidth="1"/>
+    <col min="1" max="1" width="61.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="3">
+        <v>1.9294800000000001</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1.4179600000000001</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1.11294</v>
+      </c>
+      <c r="E4" s="3">
+        <v>7.0922900000000002</v>
+      </c>
+      <c r="F4" s="3">
+        <v>5.3491799999999996</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1.9147000000000001</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1.2562199999999999</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1.47462</v>
+      </c>
+      <c r="J4" s="3">
+        <v>7.1386700000000003</v>
+      </c>
+      <c r="K4" s="3">
+        <v>5.4743899999999996</v>
+      </c>
+      <c r="L4" s="3">
+        <v>1.1835500000000001</v>
+      </c>
+      <c r="M4" s="3">
+        <v>1.1860200000000001</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0.89576999999999996</v>
+      </c>
+      <c r="O4" s="3">
+        <v>6.7224000000000004</v>
+      </c>
+      <c r="P4" s="3">
+        <v>4.3992199999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="B5" s="3">
+        <v>2.05593</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1.1437299999999999</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.84692000000000001</v>
+      </c>
+      <c r="E5" s="3">
+        <v>16.693719999999999</v>
+      </c>
+      <c r="F5" s="3">
+        <v>11.34084</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2.0107699999999999</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1.0764100000000001</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.95652999999999999</v>
+      </c>
+      <c r="J5" s="3">
+        <v>17.203189999999999</v>
+      </c>
+      <c r="K5" s="3">
+        <v>11.451689999999999</v>
+      </c>
+      <c r="L5" s="3">
+        <v>1.1474299999999999</v>
+      </c>
+      <c r="M5" s="3">
+        <v>1.1347</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0.94216</v>
+      </c>
+      <c r="O5" s="3">
+        <v>11.86303</v>
+      </c>
+      <c r="P5" s="3">
+        <v>8.8115799999999993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="B6" s="3">
+        <v>3.3474499999999998</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1.6326700000000001</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1.1847799999999999</v>
+      </c>
+      <c r="E6" s="3">
+        <v>49.130380000000002</v>
+      </c>
+      <c r="F6" s="3">
+        <v>27.711069999999999</v>
+      </c>
+      <c r="G6" s="3">
+        <v>2.0358100000000001</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1.7648600000000001</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1.21393</v>
+      </c>
+      <c r="J6" s="3">
+        <v>61.671190000000003</v>
+      </c>
+      <c r="K6" s="3">
+        <v>33.75609</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1.6913800000000001</v>
+      </c>
+      <c r="M6" s="3">
+        <v>2.2850000000000001</v>
+      </c>
+      <c r="N6" s="3">
+        <v>1.3338099999999999</v>
+      </c>
+      <c r="O6" s="3">
+        <v>42.299190000000003</v>
+      </c>
+      <c r="P6" s="3">
+        <v>31.651730000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>22</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="L2:P2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EEE10EE-7B32-C94F-84A3-EE8D948576BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/tugas/laporan.xlsx
+++ b/tugas/laporan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karunia/Documents/lecturer - DBMS/2019:2020/IF3144-1920/tugas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angelicakirana/Downloads/IF3144-1920/tugas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F409652C-A4B2-B041-93C9-55CCCBF85C91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77ECC2C2-C4A4-B24E-AD63-8DC6E4A6D144}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" xr2:uid="{3C9D5799-7662-CB47-8B99-82C16436D226}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14160" xr2:uid="{3C9D5799-7662-CB47-8B99-82C16436D226}"/>
   </bookViews>
   <sheets>
     <sheet name="Tugas" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="77">
   <si>
     <t>advisor = 100, student = 100, section = 200,takes = 200</t>
   </si>
@@ -76,9 +76,6 @@
     <t>SELECT * FROM student</t>
   </si>
   <si>
-    <t>SELECT `name`, department FROM student WHERE tot_cred &gt; 30;</t>
-  </si>
-  <si>
     <t>SELECT *  FROM takes JOIN student ON takes.ID = student.ID JOIN section ON takes.course_id = section.course_id</t>
   </si>
   <si>
@@ -134,13 +131,145 @@
   </si>
   <si>
     <t>4. Lakukan pada setiap Query</t>
+  </si>
+  <si>
+    <t>0.00028000</t>
+  </si>
+  <si>
+    <t>query 1</t>
+  </si>
+  <si>
+    <t>query 2</t>
+  </si>
+  <si>
+    <t>query 3</t>
+  </si>
+  <si>
+    <t>query 4</t>
+  </si>
+  <si>
+    <t>0.00067100</t>
+  </si>
+  <si>
+    <t>0.00041600</t>
+  </si>
+  <si>
+    <t>SELECT dept_name FROM student WHERE tot_cred &gt; 30;</t>
+  </si>
+  <si>
+    <t>0.00202900</t>
+  </si>
+  <si>
+    <t>0.00219300</t>
+  </si>
+  <si>
+    <t>query 5</t>
+  </si>
+  <si>
+    <t>0.00053500</t>
+  </si>
+  <si>
+    <t>0.00057100</t>
+  </si>
+  <si>
+    <t>0.00440400</t>
+  </si>
+  <si>
+    <t>0.00056400</t>
+  </si>
+  <si>
+    <t>0.00453300</t>
+  </si>
+  <si>
+    <t>0.00054600</t>
+  </si>
+  <si>
+    <t>0.00114200</t>
+  </si>
+  <si>
+    <t>0.00089300</t>
+  </si>
+  <si>
+    <t>0.01393700</t>
+  </si>
+  <si>
+    <t>0.00972900</t>
+  </si>
+  <si>
+    <t>0.00081000</t>
+  </si>
+  <si>
+    <t>0.00103300</t>
+  </si>
+  <si>
+    <t>0.00113300</t>
+  </si>
+  <si>
+    <t>0.03948900</t>
+  </si>
+  <si>
+    <t>0.02479000</t>
+  </si>
+  <si>
+    <t>0.00054200</t>
+  </si>
+  <si>
+    <t>0.00194200</t>
+  </si>
+  <si>
+    <t>0.00045500</t>
+  </si>
+  <si>
+    <t>0.00290200</t>
+  </si>
+  <si>
+    <t>0.00196700</t>
+  </si>
+  <si>
+    <t>0.00052400</t>
+  </si>
+  <si>
+    <t>0.00065200</t>
+  </si>
+  <si>
+    <t>0.00547000</t>
+  </si>
+  <si>
+    <t>0.00388700</t>
+  </si>
+  <si>
+    <t>0.00082700</t>
+  </si>
+  <si>
+    <t>0.00062700</t>
+  </si>
+  <si>
+    <t>0.01250500</t>
+  </si>
+  <si>
+    <t>0.00969600</t>
+  </si>
+  <si>
+    <t>0.00096200</t>
+  </si>
+  <si>
+    <t>0.00104100</t>
+  </si>
+  <si>
+    <t>0.00078400</t>
+  </si>
+  <si>
+    <t>0.03918900</t>
+  </si>
+  <si>
+    <t>0.02483200</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -156,6 +285,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -165,7 +301,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -188,16 +324,93 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7283ED88-C5BB-2349-93B1-5D98200E2DE2}">
-  <dimension ref="A2:C28"/>
+  <dimension ref="A2:K28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -523,96 +736,281 @@
     <col min="1" max="1" width="61.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.5" customWidth="1"/>
     <col min="3" max="3" width="26.83203125" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="6" max="6" width="27.5" customWidth="1"/>
+    <col min="7" max="7" width="26.6640625" customWidth="1"/>
+    <col min="8" max="8" width="21.83203125" customWidth="1"/>
+    <col min="9" max="9" width="20.5" customWidth="1"/>
+    <col min="10" max="10" width="23" customWidth="1"/>
+    <col min="11" max="11" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="B5" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="B6" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="B7" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
@@ -622,40 +1020,45 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:F2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -672,62 +1075,62 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/tugas/laporan.xlsx
+++ b/tugas/laporan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karunia/Documents/lecturer - DBMS/2019:2020/IF3144-1920/tugas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IF3144-1920\tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F409652C-A4B2-B041-93C9-55CCCBF85C91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFB3124-2371-4A04-B577-26329CF069D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" xr2:uid="{3C9D5799-7662-CB47-8B99-82C16436D226}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3C9D5799-7662-CB47-8B99-82C16436D226}"/>
   </bookViews>
   <sheets>
     <sheet name="Tugas" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>advisor = 100, student = 100, section = 200,takes = 200</t>
   </si>
@@ -73,18 +73,6 @@
     <t>SELECT * FROM student WHERE tot_cred &gt; 30;</t>
   </si>
   <si>
-    <t>SELECT * FROM student</t>
-  </si>
-  <si>
-    <t>SELECT `name`, department FROM student WHERE tot_cred &gt; 30;</t>
-  </si>
-  <si>
-    <t>SELECT *  FROM takes JOIN student ON takes.ID = student.ID JOIN section ON takes.course_id = section.course_id</t>
-  </si>
-  <si>
-    <t>SELECT student.`name`,student.dept_name,takes.sec_id AS pengambilan,takes.semester,section.room_number,section.building,course.course_id,course.dept_name FROM takes JOIN student ON takes.ID = student.ID JOIN section ON takes.course_id = section.course_id JOIN course ON section.course_id = course.course_id</t>
-  </si>
-  <si>
     <t>1. Run dengan menggunakan terminal Query di atas dan catat waktunya</t>
   </si>
   <si>
@@ -134,6 +122,39 @@
   </si>
   <si>
     <t>4. Lakukan pada setiap Query</t>
+  </si>
+  <si>
+    <t>SELECT dept_name FROM student WHERE tot_cred &gt; 30;</t>
+  </si>
+  <si>
+    <t>SELECT student.`name`,student.dept_name,takes.sec_id AS pengambilan,takes.semester,section.room_number,section.building,course.course_id,course.dept_name FROM takes JOIN student ON takes.ID = student.ID JOIN section ON takes.course_id = section.course_id JOIN course ON section.course_id = course.course_id;</t>
+  </si>
+  <si>
+    <t>SELECT *  FROM takes JOIN student ON takes.ID = student.ID JOIN section ON takes.course_id = section.course_id;</t>
+  </si>
+  <si>
+    <t>SELECT * FROM student;</t>
+  </si>
+  <si>
+    <t>0.4302, 0.7925, 0.2697, 1.4298, 1.0459</t>
+  </si>
+  <si>
+    <t>0.2618, 0.4381, 0.2959, 2.0351, 1.3713</t>
+  </si>
+  <si>
+    <t>0.8159, 0.3492, 0.3692, 2.911, 3.9788</t>
+  </si>
+  <si>
+    <t>0.4666, 0.4744, 0.3705, 12.4186, 8.206</t>
+  </si>
+  <si>
+    <t>0.8282, 0.4569, 0.3974, 11.4986, 7.1155</t>
+  </si>
+  <si>
+    <t>6.5, 1.1, 1.2, 20.9, 100.9</t>
+  </si>
+  <si>
+    <t>0.9, 1, 1.1, 1.9, 3</t>
   </si>
 </sst>
 </file>
@@ -515,17 +536,17 @@
   <dimension ref="A2:C28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="61.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5" customWidth="1"/>
-    <col min="3" max="3" width="26.83203125" customWidth="1"/>
+    <col min="1" max="1" width="61.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.19921875" customWidth="1"/>
+    <col min="3" max="3" width="33.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -536,123 +557,139 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -668,66 +705,66 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B9" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B9" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/tugas/laporan.xlsx
+++ b/tugas/laporan.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karunia/Documents/lecturer - DBMS/2019:2020/IF3144-1920/tugas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\IF3144-1920\tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F409652C-A4B2-B041-93C9-55CCCBF85C91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" xr2:uid="{3C9D5799-7662-CB47-8B99-82C16436D226}"/>
+    <workbookView xWindow="375" yWindow="465" windowWidth="28035" windowHeight="16455"/>
   </bookViews>
   <sheets>
     <sheet name="Tugas" sheetId="1" r:id="rId1"/>
     <sheet name="Laporan" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t>advisor = 100, student = 100, section = 200,takes = 200</t>
   </si>
@@ -58,9 +57,6 @@
     <t>Waktu Sebelum Tunning (ms)</t>
   </si>
   <si>
-    <t>Waktu Sesudah Tuning (ms)</t>
-  </si>
-  <si>
     <t>Data</t>
   </si>
   <si>
@@ -134,12 +130,33 @@
   </si>
   <si>
     <t>4. Lakukan pada setiap Query</t>
+  </si>
+  <si>
+    <t>Query1</t>
+  </si>
+  <si>
+    <t>Query2</t>
+  </si>
+  <si>
+    <t>Query3</t>
+  </si>
+  <si>
+    <t>Query4</t>
+  </si>
+  <si>
+    <t>Query5</t>
+  </si>
+  <si>
+    <t>Waktu Sesudah Tuning Index (ms)</t>
+  </si>
+  <si>
+    <t>Waktu Sesudah Tuning Konfigurasi(ms)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -165,7 +182,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -188,16 +205,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,223 +559,504 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7283ED88-C5BB-2349-93B1-5D98200E2DE2}">
-  <dimension ref="A2:C28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:P28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5" customWidth="1"/>
-    <col min="3" max="3" width="26.83203125" customWidth="1"/>
+    <col min="1" max="1" width="61.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="10.75" customWidth="1"/>
+    <col min="4" max="4" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>5.7280339999999999E-2</v>
+      </c>
+      <c r="C4">
+        <v>2.2859299999999998E-3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2.5212110000000002E-3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>8.9375309999999999E-2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>5.6687179999999997E-2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2.8930900000000001E-3</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1.9333899999999999E-3</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1.1322400000000001E-3</v>
+      </c>
+      <c r="J4" s="2">
+        <v>6.1960899999999996E-3</v>
+      </c>
+      <c r="K4" s="2">
+        <v>7.9858499999999992E-3</v>
+      </c>
+      <c r="L4" s="2">
+        <v>2.0607099999999999E-3</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1.7925599999999999E-3</v>
+      </c>
+      <c r="N4" s="2">
+        <v>7.8343E-4</v>
+      </c>
+      <c r="O4" s="2">
+        <v>4.4977200000000002E-3</v>
+      </c>
+      <c r="P4" s="2">
+        <v>4.9444600000000003E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3.0315899999999998E-3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>9.8115000000000008E-4</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1.10753E-3</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1.078754E-2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1.1857039999999999E-2</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1.8960800000000001E-3</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1.25862E-3</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1.72354E-3</v>
+      </c>
+      <c r="J5" s="2">
+        <v>9.8427600000000007E-3</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1.1700139999999999E-2</v>
+      </c>
+      <c r="L5" s="2">
+        <v>3.9768399999999997E-3</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1.52769E-3</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1.7109499999999999E-3</v>
+      </c>
+      <c r="O5" s="2">
+        <v>1.087195E-2</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1.7006009999999998E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2">
+        <v>5.4658199999999997E-3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1.7310100000000001E-3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1.76038E-3</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3.5321940000000003E-2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2.9402850000000001E-2</v>
+      </c>
+      <c r="G6" s="2">
+        <v>3.9143499999999996E-3</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1.6428700000000001E-3</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1.7883599999999999E-3</v>
+      </c>
+      <c r="J6" s="2">
+        <v>3.4094569999999998E-2</v>
+      </c>
+      <c r="K6" s="2">
+        <v>3.7831240000000002E-2</v>
+      </c>
+      <c r="L6" s="2">
+        <v>6.5481599999999999E-3</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1.68951E-3</v>
+      </c>
+      <c r="N6" s="2">
+        <v>2.0826199999999999E-3</v>
+      </c>
+      <c r="O6" s="2">
+        <v>4.1288129999999999E-2</v>
+      </c>
+      <c r="P6" s="2">
+        <v>2.4924709999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2">
+        <v>5.489322E-2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>9.2743099999999992E-3</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3.1593599999999999E-3</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.14339182</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.13861382999999999</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1.634476E-2</v>
+      </c>
+      <c r="H7" s="2">
+        <v>8.5179299999999999E-3</v>
+      </c>
+      <c r="I7" s="2">
+        <v>2.0373800000000001E-3</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.11608045</v>
+      </c>
+      <c r="K7" s="2">
+        <v>7.5280109999999997E-2</v>
+      </c>
+      <c r="L7" s="2">
+        <v>4.7971100000000003E-3</v>
+      </c>
+      <c r="M7" s="2">
+        <v>7.5885400000000004E-3</v>
+      </c>
+      <c r="N7" s="2">
+        <v>1.86857E-3</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0.11132111</v>
+      </c>
+      <c r="P7" s="2">
+        <v>6.2310150000000002E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>22</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EEE10EE-7B32-C94F-84A3-EE8D948576BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B9" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
